--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/10/seed5/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.2557</v>
+        <v>16.2242</v>
       </c>
     </row>
     <row r="4">
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.920199999999997</v>
+        <v>-7.102899999999996</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.4779</v>
+        <v>16.67730000000001</v>
       </c>
     </row>
     <row r="15">
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.3383</v>
+        <v>16.29409999999999</v>
       </c>
     </row>
     <row r="27">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.6764</v>
+        <v>16.6588</v>
       </c>
     </row>
     <row r="32">
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.73669999999999</v>
+        <v>-8.797699999999999</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.7514</v>
+        <v>16.6609</v>
       </c>
     </row>
     <row r="36">
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.0266</v>
+        <v>-8.228899999999996</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.64640000000001</v>
+        <v>16.5807</v>
       </c>
     </row>
     <row r="38">
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.847099999999999</v>
+        <v>-7.783499999999998</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.5926</v>
+        <v>16.5928</v>
       </c>
     </row>
     <row r="46">
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.157499999999995</v>
+        <v>-8.3149</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.170900000000003</v>
+        <v>-8.174300000000001</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.290099999999999</v>
+        <v>-8.286799999999998</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.62090000000001</v>
+        <v>16.6523</v>
       </c>
     </row>
     <row r="58">
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.319099999999999</v>
+        <v>-6.2532</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.169599999999996</v>
+        <v>-7.052099999999996</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1661,7 +1661,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.370300000000004</v>
+        <v>-7.4337</v>
       </c>
       <c r="E72" t="n">
         <v>17.18</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.523499999999997</v>
+        <v>-6.641699999999998</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.637700000000001</v>
+        <v>-7.751199999999996</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.50380000000001</v>
+        <v>16.41600000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.83139999999998</v>
+        <v>16.72469999999999</v>
       </c>
     </row>
   </sheetData>
